--- a/Участок ремонта форм/Формокомплекты/Списание формокомплектов/Акты осмотра/Шапка Акта осмотров.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Списание формокомплектов/Акты осмотра/Шапка Акта осмотров.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Списание формокомплектов\Акты осмотра\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FABDA96-2473-4A43-90F6-8C02D001DD98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="2832" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
@@ -19,19 +20,24 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Акт!$A$1:$K$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Акт!$A$1:$K$45</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -118,12 +124,6 @@
   </si>
   <si>
     <t>ХXI-КПМ-30-1-500-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Форомокомплект бутылки "Фирменная 2, 0.5 л." в том числе:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">к серийному формокомплекту XXI-В-28-2.1б-500-1/Польша/ - </t>
   </si>
   <si>
     <t>шт.</t>
@@ -163,18 +163,12 @@
     <t>Начальник участка ремонта форм</t>
   </si>
   <si>
-    <t>Зам. дирекотора по ПиТ</t>
-  </si>
-  <si>
     <t>начальник производственного участка</t>
   </si>
   <si>
     <t>Д.Е. Серков</t>
   </si>
   <si>
-    <t>13.11.2019 г.</t>
-  </si>
-  <si>
     <t xml:space="preserve">к серийному формокомплекту XXI-В-28-2.1б-500-1/Хорватия/ - </t>
   </si>
   <si>
@@ -182,12 +176,24 @@
   </si>
   <si>
     <t>участка</t>
+  </si>
+  <si>
+    <t>Зам. директора</t>
+  </si>
+  <si>
+    <t>к серийному формокомплекту XIII-В-28-2-200-3:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Форомокомплект бутылки "Фляга, 0.2 л." в том числе</t>
+  </si>
+  <si>
+    <t>200CC OVAL FLASK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -323,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -363,11 +369,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,7 +384,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 3" xfId="1"/>
+    <cellStyle name="Обычный 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -698,33 +707,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
@@ -741,79 +750,79 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="19">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D4" s="19">
         <v>32.5</v>
       </c>
       <c r="E4" s="19">
         <f>B4*D4</f>
-        <v>845</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="19">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D5" s="19">
         <v>3</v>
       </c>
       <c r="E5" s="19">
         <f t="shared" ref="E5:E16" si="0">B5*D5</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="19">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D6" s="19">
         <v>34.200000000000003</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" si="0"/>
-        <v>1162.8000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1094.4000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="19">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D7" s="19">
         <v>1.3</v>
       </c>
       <c r="E7" s="19">
         <f t="shared" si="0"/>
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>10</v>
       </c>
@@ -821,7 +830,7 @@
         <v>80</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D8" s="19">
         <v>1.29</v>
@@ -831,48 +840,48 @@
         <v>103.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="19">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D9" s="19">
         <v>0.3</v>
       </c>
       <c r="E9" s="19">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="19">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D10" s="19">
         <v>0.5</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>28</v>
@@ -882,15 +891,15 @@
       </c>
       <c r="E11" s="19">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="19"/>
@@ -899,48 +908,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="19">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D13" s="19">
         <v>1.7</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" si="0"/>
-        <v>40.799999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="19">
         <v>3</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="20">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="19"/>
@@ -949,12 +958,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="22">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>28</v>
@@ -964,19 +973,24 @@
       </c>
       <c r="E16" s="19">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="22">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -984,31 +998,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K44"/>
+  <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="5"/>
-    <col min="4" max="4" width="8" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="5"/>
-    <col min="6" max="6" width="10.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="3.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5546875" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="3" width="9.140625" style="5"/>
+    <col min="4" max="4" width="10.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
+    <col min="6" max="6" width="10.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1017,16 +1031,16 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1035,8 +1049,8 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="2" t="s">
@@ -1044,26 +1058,26 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
@@ -1073,13 +1087,13 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="8" t="s">
-        <v>42</v>
+      <c r="H12" s="8">
+        <v>44369</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -1093,7 +1107,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
@@ -1112,7 +1126,7 @@
       </c>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>5</v>
       </c>
@@ -1121,17 +1135,17 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1149,7 +1163,7 @@
       </c>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
@@ -1160,13 +1174,13 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="8" t="str">
+      <c r="I17" s="8">
         <f>H12</f>
-        <v>13.11.2019 г.</v>
+        <v>44369</v>
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
@@ -1180,7 +1194,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
@@ -1194,9 +1208,10 @@
       <c r="I19" s="6"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>29</v>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="str">
+        <f>Данные!A19</f>
+        <v xml:space="preserve">         Форомокомплект бутылки "Фляга, 0.2 л." в том числе</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1207,7 +1222,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>1</v>
       </c>
@@ -1219,7 +1234,7 @@
       <c r="D21" s="26"/>
       <c r="E21" s="6" t="str">
         <f>Данные!$A$1</f>
-        <v xml:space="preserve">к серийному формокомплекту XXI-В-28-2.1б-500-1/Польша/ - </v>
+        <v>к серийному формокомплекту XIII-В-28-2-200-3:</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -1227,13 +1242,13 @@
       <c r="I21" s="6"/>
       <c r="J21" s="24">
         <f>Данные!B4</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2</v>
       </c>
@@ -1245,7 +1260,7 @@
       <c r="D22" s="26"/>
       <c r="E22" s="6" t="str">
         <f>Данные!$A$1</f>
-        <v xml:space="preserve">к серийному формокомплекту XXI-В-28-2.1б-500-1/Польша/ - </v>
+        <v>к серийному формокомплекту XIII-В-28-2-200-3:</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1253,13 +1268,13 @@
       <c r="I22" s="6"/>
       <c r="J22" s="24">
         <f>Данные!B5</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>3</v>
       </c>
@@ -1271,7 +1286,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="6" t="str">
         <f>Данные!$A$1</f>
-        <v xml:space="preserve">к серийному формокомплекту XXI-В-28-2.1б-500-1/Польша/ - </v>
+        <v>к серийному формокомплекту XIII-В-28-2-200-3:</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1279,13 +1294,13 @@
       <c r="I23" s="6"/>
       <c r="J23" s="24">
         <f>Данные!B6</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>4</v>
       </c>
@@ -1297,7 +1312,7 @@
       <c r="D24" s="26"/>
       <c r="E24" s="6" t="str">
         <f>Данные!$A$1</f>
-        <v xml:space="preserve">к серийному формокомплекту XXI-В-28-2.1б-500-1/Польша/ - </v>
+        <v>к серийному формокомплекту XIII-В-28-2-200-3:</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -1305,13 +1320,13 @@
       <c r="I24" s="6"/>
       <c r="J24" s="24">
         <f>Данные!B7</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>5</v>
       </c>
@@ -1323,7 +1338,7 @@
       <c r="D25" s="26"/>
       <c r="E25" s="6" t="str">
         <f>Данные!$A$1</f>
-        <v xml:space="preserve">к серийному формокомплекту XXI-В-28-2.1б-500-1/Польша/ - </v>
+        <v>к серийному формокомплекту XIII-В-28-2-200-3:</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -1334,10 +1349,10 @@
         <v>80</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>6</v>
       </c>
@@ -1349,7 +1364,7 @@
       <c r="D26" s="26"/>
       <c r="E26" s="6" t="str">
         <f>Данные!$A$1</f>
-        <v xml:space="preserve">к серийному формокомплекту XXI-В-28-2.1б-500-1/Польша/ - </v>
+        <v>к серийному формокомплекту XIII-В-28-2-200-3:</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -1357,13 +1372,13 @@
       <c r="I26" s="6"/>
       <c r="J26" s="24">
         <f>Данные!B9</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>7</v>
       </c>
@@ -1375,7 +1390,7 @@
       <c r="D27" s="26"/>
       <c r="E27" s="6" t="str">
         <f>Данные!$A$1</f>
-        <v xml:space="preserve">к серийному формокомплекту XXI-В-28-2.1б-500-1/Польша/ - </v>
+        <v>к серийному формокомплекту XIII-В-28-2-200-3:</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -1383,13 +1398,13 @@
       <c r="I27" s="6"/>
       <c r="J27" s="24">
         <f>Данные!B10</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>8</v>
       </c>
@@ -1401,7 +1416,7 @@
       <c r="D28" s="26"/>
       <c r="E28" s="6" t="str">
         <f>Данные!$A$1</f>
-        <v xml:space="preserve">к серийному формокомплекту XXI-В-28-2.1б-500-1/Польша/ - </v>
+        <v>к серийному формокомплекту XIII-В-28-2-200-3:</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -1409,39 +1424,39 @@
       <c r="I28" s="6"/>
       <c r="J28" s="24">
         <f>Данные!B11</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>9</v>
       </c>
       <c r="B29" s="26" t="str">
-        <f>Данные!A12</f>
-        <v>Плунжер для исп.</v>
+        <f>Данные!A17</f>
+        <v>Трубка дутьевой головки</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="6" t="str">
         <f>Данные!$A$1</f>
-        <v xml:space="preserve">к серийному формокомплекту XXI-В-28-2.1б-500-1/Польша/ - </v>
+        <v>к серийному формокомплекту XIII-В-28-2-200-3:</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="24">
-        <f>Данные!B12</f>
-        <v>20</v>
+        <f>Данные!B17</f>
+        <v>0</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>10</v>
       </c>
@@ -1452,8 +1467,8 @@
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
       <c r="E30" s="6" t="str">
-        <f>Данные!A2</f>
-        <v xml:space="preserve">к серийному формокомплекту XXI-В-28-2.1б-500-1/Хорватия/ - </v>
+        <f>Данные!A1</f>
+        <v>к серийному формокомплекту XIII-В-28-2-200-3:</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -1461,13 +1476,13 @@
       <c r="I30" s="6"/>
       <c r="J30" s="24">
         <f>Данные!B13</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>11</v>
       </c>
@@ -1478,8 +1493,8 @@
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
       <c r="E31" s="6" t="str">
-        <f>Данные!A2</f>
-        <v xml:space="preserve">к серийному формокомплекту XXI-В-28-2.1б-500-1/Хорватия/ - </v>
+        <f>Данные!A1</f>
+        <v>к серийному формокомплекту XIII-В-28-2-200-3:</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -1487,13 +1502,13 @@
       <c r="I31" s="6"/>
       <c r="J31" s="24">
         <f>Данные!B14</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>12</v>
       </c>
@@ -1504,8 +1519,8 @@
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="6" t="str">
-        <f>Данные!A2</f>
-        <v xml:space="preserve">к серийному формокомплекту XXI-В-28-2.1б-500-1/Хорватия/ - </v>
+        <f>Данные!A1</f>
+        <v>к серийному формокомплекту XIII-В-28-2-200-3:</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -1513,162 +1528,175 @@
       <c r="I32" s="6"/>
       <c r="J32" s="24">
         <f>Данные!B15</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J33" s="24"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
       <c r="I38" s="6"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="6" t="str">
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="6" t="str">
         <f>I14</f>
         <v>Я.В. Карчмит</v>
       </c>
-      <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="6" t="str">
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="6" t="str">
         <f>I15</f>
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-    </row>
-    <row r="43" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
-      <c r="C43" s="6"/>
+      <c r="C43" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
     </row>
-    <row r="44" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
-      <c r="C44" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="C44" s="6"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="6" t="str">
+    </row>
+    <row r="45" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="6" t="str">
         <f>I16</f>
         <v>А.Д. Гавриленко</v>
       </c>
-      <c r="J44" s="6"/>
+      <c r="J45" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1680,7 +1708,7 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A34:K36"/>
+    <mergeCell ref="A35:K37"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
@@ -1689,6 +1717,6 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>